--- a/public/Reporte Inspeccion.xlsx
+++ b/public/Reporte Inspeccion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>NTS N° 198 - MINSA/DIGESA-2023</t>
   </si>
@@ -26,10 +26,37 @@
     <t>Formato 03: Inspección de viviendas para la vigilancia y control del Aedes aegypti</t>
   </si>
   <si>
-    <t>od</t>
-  </si>
-  <si>
     <t>INSPECCIÓN DE VIVIENDAS PARA LA VIGILANCIA Y CONTROL DEL Aedes aegypti</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Codigo de Manzana</t>
+  </si>
+  <si>
+    <t>Dirección o persona que atiende</t>
+  </si>
+  <si>
+    <t>N° de residentes</t>
+  </si>
+  <si>
+    <t>Depositos</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>TQ</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -37,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -65,15 +92,6 @@
       <color rgb="FF000000"/>
       <name val="calibri"/>
     </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -103,8 +121,11 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -113,6 +134,41 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1695450" cy="333375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,37 +461,209 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:AP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="5" max="5" width="4" customWidth="true" style="4"/>
+    <col min="6" max="6" width="4" customWidth="true" style="4"/>
+    <col min="7" max="7" width="4" customWidth="true" style="4"/>
+    <col min="8" max="8" width="4" customWidth="true" style="4"/>
+    <col min="9" max="9" width="4" customWidth="true" style="4"/>
+    <col min="10" max="10" width="4" customWidth="true" style="4"/>
+    <col min="11" max="11" width="4" customWidth="true" style="4"/>
+    <col min="12" max="12" width="4" customWidth="true" style="4"/>
+    <col min="13" max="13" width="4" customWidth="true" style="4"/>
+    <col min="14" max="14" width="4" customWidth="true" style="4"/>
+    <col min="15" max="15" width="4" customWidth="true" style="4"/>
+    <col min="16" max="16" width="4" customWidth="true" style="4"/>
+    <col min="17" max="17" width="4" customWidth="true" style="4"/>
+    <col min="18" max="18" width="4" customWidth="true" style="4"/>
+    <col min="19" max="19" width="4" customWidth="true" style="4"/>
+    <col min="20" max="20" width="4" customWidth="true" style="4"/>
+    <col min="21" max="21" width="4" customWidth="true" style="4"/>
+    <col min="22" max="22" width="4" customWidth="true" style="4"/>
+    <col min="23" max="23" width="4" customWidth="true" style="4"/>
+    <col min="24" max="24" width="4" customWidth="true" style="4"/>
+    <col min="25" max="25" width="4" customWidth="true" style="4"/>
+    <col min="26" max="26" width="4" customWidth="true" style="4"/>
+    <col min="27" max="27" width="4" customWidth="true" style="4"/>
+    <col min="28" max="28" width="4" customWidth="true" style="4"/>
+    <col min="29" max="29" width="4" customWidth="true" style="4"/>
+    <col min="30" max="30" width="4" customWidth="true" style="4"/>
+    <col min="31" max="31" width="4" customWidth="true" style="4"/>
+    <col min="32" max="32" width="4" customWidth="true" style="4"/>
+    <col min="33" max="33" width="4" customWidth="true" style="4"/>
+    <col min="34" max="34" width="4" customWidth="true" style="4"/>
+    <col min="35" max="35" width="4" customWidth="true" style="4"/>
+    <col min="36" max="36" width="4" customWidth="true" style="4"/>
+    <col min="37" max="37" width="4" customWidth="true" style="4"/>
+    <col min="38" max="38" width="4" customWidth="true" style="4"/>
+    <col min="39" max="39" width="4" customWidth="true" style="4"/>
+    <col min="40" max="40" width="4" customWidth="true" style="4"/>
+    <col min="41" max="41" width="4" customWidth="true" style="4"/>
+    <col min="42" max="42" width="4" customWidth="true" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:42">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10"/>
-    <row r="4" spans="1:10">
+    <row r="3" spans="1:42"/>
+    <row r="4" spans="1:42">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10"/>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+    <row r="5" spans="1:42"/>
+    <row r="6" spans="1:42" customHeight="1" ht="28">
+      <c r="J6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:42" customHeight="1" ht="28"/>
+    <row r="8" spans="1:42" customHeight="1" ht="28"/>
+    <row r="9" spans="1:42">
+      <c r="A9" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP12" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -446,9 +674,16 @@
     <mergeCell ref="A4:AR4"/>
     <mergeCell ref="A5:AR5"/>
     <mergeCell ref="J6:AR6"/>
+    <mergeCell ref="A7:AR7"/>
+    <mergeCell ref="A8:AR8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.472441" right="0.393701" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" scale="90" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/Reporte Inspeccion.xlsx
+++ b/public/Reporte Inspeccion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>NTS N° 198 - MINSA/DIGESA-2023</t>
   </si>
@@ -32,6 +32,9 @@
     <t>N°</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Codigo de Manzana</t>
   </si>
   <si>
@@ -41,7 +44,16 @@
     <t>N° de residentes</t>
   </si>
   <si>
-    <t>Depositos</t>
+    <t>Depósitos</t>
+  </si>
+  <si>
+    <t>Consumo de Larvicida(g)</t>
+  </si>
+  <si>
+    <t>&gt; 500 L</t>
+  </si>
+  <si>
+    <t>Tanque alto</t>
   </si>
   <si>
     <t>I</t>
@@ -56,7 +68,43 @@
     <t>TF</t>
   </si>
   <si>
+    <t>Tanque bajo</t>
+  </si>
+  <si>
+    <t>- 200 L</t>
+  </si>
+  <si>
+    <t>Barril-cilindro</t>
+  </si>
+  <si>
+    <t>&gt; 200 L - 100 L</t>
+  </si>
+  <si>
+    <t>Sansón-bidon</t>
+  </si>
+  <si>
+    <t>&lt; 100 L</t>
+  </si>
+  <si>
+    <t>Baldes, bateas, tinajas</t>
+  </si>
+  <si>
+    <t>Llantas</t>
+  </si>
+  <si>
+    <t>Floreros, maceteros</t>
+  </si>
+  <si>
+    <t>Latas, botellas</t>
+  </si>
+  <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Febriles</t>
   </si>
 </sst>
 </file>
@@ -64,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -92,6 +140,15 @@
       <color rgb="FF000000"/>
       <name val="calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,11 +166,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -121,11 +193,14 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="21"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,210 +536,1581 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AP12"/>
+  <dimension ref="A1:AR38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AP12" sqref="AP12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="5" max="5" width="4" customWidth="true" style="4"/>
-    <col min="6" max="6" width="4" customWidth="true" style="4"/>
-    <col min="7" max="7" width="4" customWidth="true" style="4"/>
-    <col min="8" max="8" width="4" customWidth="true" style="4"/>
-    <col min="9" max="9" width="4" customWidth="true" style="4"/>
-    <col min="10" max="10" width="4" customWidth="true" style="4"/>
-    <col min="11" max="11" width="4" customWidth="true" style="4"/>
-    <col min="12" max="12" width="4" customWidth="true" style="4"/>
-    <col min="13" max="13" width="4" customWidth="true" style="4"/>
-    <col min="14" max="14" width="4" customWidth="true" style="4"/>
-    <col min="15" max="15" width="4" customWidth="true" style="4"/>
-    <col min="16" max="16" width="4" customWidth="true" style="4"/>
-    <col min="17" max="17" width="4" customWidth="true" style="4"/>
-    <col min="18" max="18" width="4" customWidth="true" style="4"/>
-    <col min="19" max="19" width="4" customWidth="true" style="4"/>
-    <col min="20" max="20" width="4" customWidth="true" style="4"/>
-    <col min="21" max="21" width="4" customWidth="true" style="4"/>
-    <col min="22" max="22" width="4" customWidth="true" style="4"/>
-    <col min="23" max="23" width="4" customWidth="true" style="4"/>
-    <col min="24" max="24" width="4" customWidth="true" style="4"/>
-    <col min="25" max="25" width="4" customWidth="true" style="4"/>
-    <col min="26" max="26" width="4" customWidth="true" style="4"/>
-    <col min="27" max="27" width="4" customWidth="true" style="4"/>
-    <col min="28" max="28" width="4" customWidth="true" style="4"/>
-    <col min="29" max="29" width="4" customWidth="true" style="4"/>
-    <col min="30" max="30" width="4" customWidth="true" style="4"/>
-    <col min="31" max="31" width="4" customWidth="true" style="4"/>
-    <col min="32" max="32" width="4" customWidth="true" style="4"/>
-    <col min="33" max="33" width="4" customWidth="true" style="4"/>
-    <col min="34" max="34" width="4" customWidth="true" style="4"/>
-    <col min="35" max="35" width="4" customWidth="true" style="4"/>
-    <col min="36" max="36" width="4" customWidth="true" style="4"/>
-    <col min="37" max="37" width="4" customWidth="true" style="4"/>
-    <col min="38" max="38" width="4" customWidth="true" style="4"/>
-    <col min="39" max="39" width="4" customWidth="true" style="4"/>
-    <col min="40" max="40" width="4" customWidth="true" style="4"/>
-    <col min="41" max="41" width="4" customWidth="true" style="4"/>
-    <col min="42" max="42" width="4" customWidth="true" style="4"/>
+    <col min="1" max="1" width="4" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6" customWidth="true" style="0"/>
+    <col min="3" max="3" width="25" customWidth="true" style="0"/>
+    <col min="4" max="4" width="5" customWidth="true" style="0"/>
+    <col min="5" max="5" width="4" customWidth="true" style="0"/>
+    <col min="6" max="6" width="4" customWidth="true" style="0"/>
+    <col min="7" max="7" width="4" customWidth="true" style="0"/>
+    <col min="8" max="8" width="4" customWidth="true" style="0"/>
+    <col min="9" max="9" width="4" customWidth="true" style="0"/>
+    <col min="10" max="10" width="4" customWidth="true" style="0"/>
+    <col min="11" max="11" width="4" customWidth="true" style="0"/>
+    <col min="12" max="12" width="4" customWidth="true" style="0"/>
+    <col min="13" max="13" width="4" customWidth="true" style="0"/>
+    <col min="14" max="14" width="4" customWidth="true" style="0"/>
+    <col min="15" max="15" width="4" customWidth="true" style="0"/>
+    <col min="16" max="16" width="4" customWidth="true" style="0"/>
+    <col min="17" max="17" width="4" customWidth="true" style="0"/>
+    <col min="18" max="18" width="4" customWidth="true" style="0"/>
+    <col min="19" max="19" width="4" customWidth="true" style="0"/>
+    <col min="20" max="20" width="4" customWidth="true" style="0"/>
+    <col min="21" max="21" width="4" customWidth="true" style="0"/>
+    <col min="22" max="22" width="4" customWidth="true" style="0"/>
+    <col min="23" max="23" width="4" customWidth="true" style="0"/>
+    <col min="24" max="24" width="4" customWidth="true" style="0"/>
+    <col min="25" max="25" width="4" customWidth="true" style="0"/>
+    <col min="26" max="26" width="4" customWidth="true" style="0"/>
+    <col min="27" max="27" width="4" customWidth="true" style="0"/>
+    <col min="28" max="28" width="4" customWidth="true" style="0"/>
+    <col min="29" max="29" width="4" customWidth="true" style="0"/>
+    <col min="30" max="30" width="4" customWidth="true" style="0"/>
+    <col min="31" max="31" width="4" customWidth="true" style="0"/>
+    <col min="32" max="32" width="4" customWidth="true" style="0"/>
+    <col min="33" max="33" width="4" customWidth="true" style="0"/>
+    <col min="34" max="34" width="4" customWidth="true" style="0"/>
+    <col min="35" max="35" width="4" customWidth="true" style="0"/>
+    <col min="36" max="36" width="4" customWidth="true" style="0"/>
+    <col min="37" max="37" width="4" customWidth="true" style="0"/>
+    <col min="38" max="38" width="4" customWidth="true" style="0"/>
+    <col min="39" max="39" width="4" customWidth="true" style="0"/>
+    <col min="40" max="40" width="4" customWidth="true" style="0"/>
+    <col min="41" max="41" width="4" customWidth="true" style="0"/>
+    <col min="42" max="42" width="4" customWidth="true" style="0"/>
+    <col min="43" max="43" width="6" customWidth="true" style="0"/>
+    <col min="44" max="44" width="4" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:44">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:42"/>
-    <row r="4" spans="1:42">
+    <row r="3" spans="1:44"/>
+    <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:42"/>
-    <row r="6" spans="1:42" customHeight="1" ht="28">
-      <c r="J6" s="4" t="s">
+    <row r="5" spans="1:44"/>
+    <row r="6" spans="1:44" customHeight="1" ht="28">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:42" customHeight="1" ht="28"/>
-    <row r="8" spans="1:42" customHeight="1" ht="28"/>
-    <row r="9" spans="1:42">
+    <row r="7" spans="1:44" customHeight="1" ht="28"/>
+    <row r="8" spans="1:44" customHeight="1" ht="28"/>
+    <row r="9" spans="1:44">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+    </row>
+    <row r="11" spans="1:44" customHeight="1" ht="37">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+    </row>
+    <row r="23" spans="1:44">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+    </row>
+    <row r="24" spans="1:44">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+    </row>
+    <row r="25" spans="1:44">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+    </row>
+    <row r="30" spans="1:44">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+    </row>
+    <row r="31" spans="1:44">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+    </row>
+    <row r="32" spans="1:44">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+    </row>
+    <row r="33" spans="1:44">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+    </row>
+    <row r="34" spans="1:44">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+    </row>
+    <row r="35" spans="1:44">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+    </row>
+    <row r="36" spans="1:44">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+    </row>
+    <row r="37" spans="1:44">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+    </row>
+    <row r="38" spans="1:44">
+      <c r="A38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42">
-      <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP12" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -673,13 +2119,30 @@
     <mergeCell ref="A3:AR3"/>
     <mergeCell ref="A4:AR4"/>
     <mergeCell ref="A5:AR5"/>
-    <mergeCell ref="J6:AR6"/>
+    <mergeCell ref="D6:AR6"/>
     <mergeCell ref="A7:AR7"/>
     <mergeCell ref="A8:AR8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="D9:D12"/>
+    <mergeCell ref="AQ9:AQ12"/>
+    <mergeCell ref="AR9:AR12"/>
+    <mergeCell ref="E9:AP9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y10:AB11"/>
+    <mergeCell ref="AC10:AF11"/>
+    <mergeCell ref="AG10:AK11"/>
+    <mergeCell ref="AL10:AP11"/>
+    <mergeCell ref="A38:D38"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.472441" right="0.393701" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Reporte Inspeccion.xlsx
+++ b/public/Reporte Inspeccion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>NTS N° 198 - MINSA/DIGESA-2023</t>
   </si>
@@ -29,6 +29,12 @@
     <t>INSPECCIÓN DE VIVIENDAS PARA LA VIGILANCIA Y CONTROL DEL Aedes aegypti</t>
   </si>
   <si>
+    <t>CENTRO ESSALUD 1SECTOR 123</t>
+  </si>
+  <si>
+    <t>FERNANDEZ MAURICIO LORENZO</t>
+  </si>
+  <si>
     <t>N°</t>
   </si>
   <si>
@@ -48,6 +54,18 @@
   </si>
   <si>
     <t>Consumo de Larvicida(g)</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>juana</t>
+  </si>
+  <si>
+    <t>ana</t>
   </si>
   <si>
     <t>&gt; 500 L</t>
@@ -612,23 +630,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:44" customHeight="1" ht="28"/>
-    <row r="8" spans="1:44" customHeight="1" ht="28"/>
+    <row r="7" spans="1:44" customHeight="1" ht="28">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" customHeight="1" ht="28">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="9" spans="1:44">
       <c r="A9" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -668,10 +694,10 @@
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR9" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -680,7 +706,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -690,44 +716,44 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
@@ -742,31 +768,31 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -798,133 +824,147 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AG12" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ12" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AL12" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AP12" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -961,12 +1001,24 @@
       <c r="AR13" s="4"/>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2066,7 +2118,7 @@
     </row>
     <row r="38" spans="1:44">
       <c r="A38" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>

--- a/public/Reporte Inspeccion.xlsx
+++ b/public/Reporte Inspeccion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>NTS N° 198 - MINSA/DIGESA-2023</t>
   </si>
@@ -29,10 +29,10 @@
     <t>INSPECCIÓN DE VIVIENDAS PARA LA VIGILANCIA Y CONTROL DEL Aedes aegypti</t>
   </si>
   <si>
-    <t>CENTRO ESSALUD 1SECTOR 123</t>
-  </si>
-  <si>
-    <t>FERNANDEZ MAURICIO LORENZO</t>
+    <t>dfgdfNUEVO NNN</t>
+  </si>
+  <si>
+    <t>SDFSDFDS</t>
   </si>
   <si>
     <t>N°</t>
@@ -54,18 +54,6 @@
   </si>
   <si>
     <t>Consumo de Larvicida(g)</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>dfg</t>
-  </si>
-  <si>
-    <t>juana</t>
-  </si>
-  <si>
-    <t>ana</t>
   </si>
   <si>
     <t>&gt; 500 L</t>
@@ -697,7 +685,7 @@
         <v>12</v>
       </c>
       <c r="AR9" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -706,7 +694,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -716,44 +704,44 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
@@ -768,31 +756,31 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -824,147 +812,133 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG12" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AL12" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AP12" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1001,24 +975,12 @@
       <c r="AR13" s="4"/>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" s="4">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>

--- a/public/Reporte Inspeccion.xlsx
+++ b/public/Reporte Inspeccion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>NTS N° 198 - MINSA/DIGESA-2023</t>
   </si>
@@ -35,13 +35,13 @@
     <t>NOMBRES Y APELLIDOS DEL INSPECTOR:</t>
   </si>
   <si>
-    <t>Localidad 1</t>
-  </si>
-  <si>
-    <t>SDFSDFDS</t>
-  </si>
-  <si>
-    <t>CENTRO ESSALUD 2</t>
+    <t>Localidad 2</t>
+  </si>
+  <si>
+    <t>FERNANDEZ MAURICIO LORENZO</t>
+  </si>
+  <si>
+    <t>CENTRO ESSALUD 1</t>
   </si>
   <si>
     <t>SECTOR:</t>
@@ -50,18 +50,18 @@
     <t>ACTIVIDAD:</t>
   </si>
   <si>
-    <t>LOTE</t>
+    <t>SECTOR 123</t>
   </si>
   <si>
     <t>VIGILANCIA</t>
   </si>
   <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
-    <t>CONTROL</t>
-  </si>
-  <si>
     <t>RECUPERACIÓN</t>
   </si>
   <si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Febriles</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>juana</t>
   </si>
   <si>
     <t>Total</t>
@@ -843,16 +849,16 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="Y7" s="7"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="7"/>
+      <c r="AD7" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4" t="s">
         <v>15</v>
@@ -1219,10 +1225,18 @@
       <c r="AR12" s="10"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="9">
+        <v>14</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1240,7 +1254,9 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
+      <c r="V13" s="9">
+        <v>5</v>
+      </c>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -1261,7 +1277,9 @@
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
+      <c r="AQ13" s="9">
+        <v>5.0</v>
+      </c>
       <c r="AR13" s="9"/>
     </row>
     <row r="14" spans="1:44">
@@ -2370,7 +2388,7 @@
     </row>
     <row r="38" spans="1:44">
       <c r="A38" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2445,7 +2463,7 @@
       </c>
       <c r="V38" s="10">
         <f>SUM(V13:V37)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W38" s="10">
         <f>SUM(W13:W37)</f>
@@ -2529,7 +2547,7 @@
       </c>
       <c r="AQ38" s="10">
         <f>SUM(AQ13:AQ37)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR38" s="10"/>
     </row>

--- a/public/Reporte Inspeccion.xlsx
+++ b/public/Reporte Inspeccion.xlsx
@@ -1241,7 +1241,9 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9">
+        <v>5</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -1254,9 +1256,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
-      <c r="V13" s="9">
-        <v>5</v>
-      </c>
+      <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="I38" s="10">
         <f>SUM(I13:I37)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J38" s="10">
         <f>SUM(J13:J37)</f>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="V38" s="10">
         <f>SUM(V13:V37)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W38" s="10">
         <f>SUM(W13:W37)</f>

--- a/public/Reporte Inspeccion.xlsx
+++ b/public/Reporte Inspeccion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>NTS N° 198 - MINSA/DIGESA-2023</t>
   </si>
@@ -35,13 +35,13 @@
     <t>NOMBRES Y APELLIDOS DEL INSPECTOR:</t>
   </si>
   <si>
-    <t>Localidad 2</t>
-  </si>
-  <si>
-    <t>FERNANDEZ MAURICIO LORENZO</t>
-  </si>
-  <si>
-    <t>CENTRO ESSALUD 1</t>
+    <t>VICE</t>
+  </si>
+  <si>
+    <t>SDFSDFDS</t>
+  </si>
+  <si>
+    <t>dfgdf</t>
   </si>
   <si>
     <t>SECTOR:</t>
@@ -50,7 +50,7 @@
     <t>ACTIVIDAD:</t>
   </si>
   <si>
-    <t>SECTOR 123</t>
+    <t>NUEVO NNN</t>
   </si>
   <si>
     <t>VIGILANCIA</t>
@@ -59,18 +59,21 @@
     <t>CONTROL</t>
   </si>
   <si>
+    <t>RECUPERACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA:</t>
+  </si>
+  <si>
+    <t>CERCO</t>
+  </si>
+  <si>
+    <t>28/05/2024</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
-    <t>RECUPERACIÓN</t>
-  </si>
-  <si>
-    <t>FECHA:</t>
-  </si>
-  <si>
-    <t>CERCO</t>
-  </si>
-  <si>
     <t>N°</t>
   </si>
   <si>
@@ -146,13 +149,155 @@
     <t>Febriles</t>
   </si>
   <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>juana</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Consolidado</t>
+  </si>
+  <si>
+    <t>Abreriaturas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"/>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Viviendas: </t>
+    </r>
+    <r>
+      <t xml:space="preserve">si la vivienda no se pudo inspeccionar consignar C(vivienda cerrada), R(vivienda renuente) o D(vivienda deshabitada).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"/>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Depositos: </t>
+    </r>
+    <r>
+      <t xml:space="preserve">en la columna: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">I</t>
+    </r>
+    <r>
+      <t xml:space="preserve">(inspeccionado), </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">P</t>
+    </r>
+    <r>
+      <t xml:space="preserve">(positivo), </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">TQ</t>
+    </r>
+    <r>
+      <t xml:space="preserve">(tratamiento fisico), </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">D</t>
+    </r>
+    <r>
+      <t xml:space="preserve">(destruido), </t>
+    </r>
+    <r>
+      <t xml:space="preserve">colocar el número de recipientes segun corresponda.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hora de ingreso</t>
+  </si>
+  <si>
+    <t>Hora de salida</t>
+  </si>
+  <si>
+    <t>FIRMA DEL JEFE DE BRIGADA</t>
+  </si>
+  <si>
+    <t>FIRMA DEL JEFE DEL INSPECTOR</t>
+  </si>
+  <si>
+    <t>viviendas inspeccionadas</t>
+  </si>
+  <si>
+    <t>viviendas cerradas</t>
+  </si>
+  <si>
+    <t>viviendas renuentes</t>
+  </si>
+  <si>
+    <t>viviendas deshabitadas</t>
+  </si>
+  <si>
+    <t>viviendas tratadas</t>
+  </si>
+  <si>
+    <t>viviendas positivas</t>
+  </si>
+  <si>
+    <t>recipientes positivos</t>
   </si>
 </sst>
 </file>
@@ -233,7 +378,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -265,11 +410,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -303,6 +598,23 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,10 +950,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AR38"/>
+  <dimension ref="A1:AR47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A38" sqref="A38:AR38"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -758,12 +1070,14 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="5"/>
+      <c r="AM5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AN5" s="6"/>
       <c r="AO5" s="6"/>
       <c r="AP5" s="6"/>
@@ -856,12 +1170,10 @@
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="AD7" s="7"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
@@ -869,11 +1181,13 @@
       <c r="AJ7" s="7"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
-      <c r="AO7" s="7"/>
+      <c r="AO7" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4"/>
@@ -926,19 +1240,19 @@
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -978,10 +1292,10 @@
       <c r="AO9" s="10"/>
       <c r="AP9" s="10"/>
       <c r="AQ9" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR9" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -990,7 +1304,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1000,44 +1314,44 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
       <c r="AL10" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM10" s="10"/>
       <c r="AN10" s="10"/>
@@ -1052,31 +1366,31 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
@@ -1108,118 +1422,118 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="J12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="L12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="N12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="O12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="10" t="s">
+      <c r="P12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="R12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="S12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="10" t="s">
+      <c r="T12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="V12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="W12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="U12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" s="10" t="s">
+      <c r="X12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="Z12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X12" s="10" t="s">
+      <c r="AA12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Y12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z12" s="10" t="s">
+      <c r="AB12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AA12" s="10" t="s">
+      <c r="AD12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AB12" s="10" t="s">
+      <c r="AE12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AC12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD12" s="10" t="s">
+      <c r="AF12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AE12" s="10" t="s">
+      <c r="AH12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AF12" s="10" t="s">
+      <c r="AI12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AG12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH12" s="10" t="s">
+      <c r="AJ12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AI12" s="10" t="s">
+      <c r="AM12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AJ12" s="10" t="s">
+      <c r="AN12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AK12" s="10" t="s">
+      <c r="AO12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AL12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO12" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="AP12" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="10"/>
@@ -1229,22 +1543,26 @@
         <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="9">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9">
         <v>14</v>
       </c>
-      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9">
-        <v>5</v>
-      </c>
-      <c r="J13" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="9">
+        <v>3</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -1278,7 +1596,7 @@
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="9">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="AR13" s="9"/>
     </row>
@@ -2388,14 +2706,14 @@
     </row>
     <row r="38" spans="1:44">
       <c r="A38" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10">
         <f>SUM(E13:E37)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F38" s="10">
         <f>SUM(F13:F37)</f>
@@ -2411,11 +2729,11 @@
       </c>
       <c r="I38" s="10">
         <f>SUM(I13:I37)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" s="10">
         <f>SUM(J13:J37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K38" s="10">
         <f>SUM(K13:K37)</f>
@@ -2547,9 +2865,446 @@
       </c>
       <c r="AQ38" s="10">
         <f>SUM(AQ13:AQ37)</f>
+        <v>14</v>
+      </c>
+      <c r="AR38" s="10"/>
+    </row>
+    <row r="40" spans="1:44">
+      <c r="B40" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="F40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+    </row>
+    <row r="41" spans="1:44">
+      <c r="B41" s="24">
+        <v>1</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1</v>
+      </c>
+      <c r="G41" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve"/>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Viviendas: </t>
+          </r>
+          <r>
+            <t xml:space="preserve">si la vivienda no se pudo inspeccionar consignar C(vivienda cerrada), R(vivienda renuente) o D(vivienda deshabitada).</t>
+          </r>
+        </is>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="12"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+    </row>
+    <row r="42" spans="1:44">
+      <c r="B42" s="24">
+        <v>2</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
+        <v>2</v>
+      </c>
+      <c r="G42" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve"/>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Depositos: </t>
+          </r>
+          <r>
+            <t xml:space="preserve">en la columna: </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">I</t>
+          </r>
+          <r>
+            <t xml:space="preserve">(inspeccionado), </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">P</t>
+          </r>
+          <r>
+            <t xml:space="preserve">(positivo), </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">TQ</t>
+          </r>
+          <r>
+            <t xml:space="preserve">(tratamiento fisico), </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">D</t>
+          </r>
+          <r>
+            <t xml:space="preserve">(destruido), </t>
+          </r>
+          <r>
+            <t xml:space="preserve">colocar el número de recipientes segun corresponda.</t>
+          </r>
+        </is>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+    </row>
+    <row r="43" spans="1:44">
+      <c r="B43" s="24">
+        <v>3</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44">
+      <c r="B44" s="24">
+        <v>4</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="17"/>
+      <c r="AM44" s="17"/>
+      <c r="AN44" s="17"/>
+      <c r="AO44" s="17"/>
+      <c r="AP44" s="17"/>
+      <c r="AQ44" s="17"/>
+      <c r="AR44" s="19"/>
+    </row>
+    <row r="45" spans="1:44">
+      <c r="B45" s="24">
         <v>5</v>
       </c>
-      <c r="AR38" s="10"/>
+      <c r="C45" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="18"/>
+      <c r="AI45" s="18"/>
+      <c r="AJ45" s="18"/>
+      <c r="AK45" s="18"/>
+      <c r="AL45" s="18"/>
+      <c r="AM45" s="18"/>
+      <c r="AN45" s="18"/>
+      <c r="AO45" s="18"/>
+      <c r="AP45" s="13"/>
+      <c r="AQ45" s="13"/>
+      <c r="AR45" s="20"/>
+    </row>
+    <row r="46" spans="1:44">
+      <c r="B46" s="24">
+        <v>6</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18"/>
+      <c r="AA46" s="18"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="18"/>
+      <c r="AE46" s="18"/>
+      <c r="AF46" s="18"/>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI46" s="18"/>
+      <c r="AJ46" s="18"/>
+      <c r="AK46" s="18"/>
+      <c r="AL46" s="18"/>
+      <c r="AM46" s="18"/>
+      <c r="AN46" s="18"/>
+      <c r="AO46" s="18"/>
+      <c r="AP46" s="18"/>
+      <c r="AQ46" s="18"/>
+      <c r="AR46" s="21"/>
+    </row>
+    <row r="47" spans="1:44">
+      <c r="B47" s="24">
+        <v>7</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -2604,6 +3359,20 @@
     <mergeCell ref="AG10:AK11"/>
     <mergeCell ref="AL10:AP11"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F40:AR40"/>
+    <mergeCell ref="G41:AR41"/>
+    <mergeCell ref="G42:AR42"/>
+    <mergeCell ref="F43:AR43"/>
+    <mergeCell ref="F47:AR47"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="S45:Y45"/>
+    <mergeCell ref="S46:Y46"/>
+    <mergeCell ref="AH45:AO45"/>
+    <mergeCell ref="AH46:AO46"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.472441" right="0.393701" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
